--- a/Result export.xlsx
+++ b/Result export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ITB File\Year 2\Sam 2\Assm-File\CS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57223222-EC41-48D3-BBEF-D399656883FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961E6BB1-7FF7-4AE4-81E6-32E782C6B39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{F3122126-CF51-4E50-88F4-B37CFEB9FB30}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="9540" windowHeight="13776" xr2:uid="{F3122126-CF51-4E50-88F4-B37CFEB9FB30}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="26">
   <si>
     <t>Performance Measure</t>
   </si>
@@ -53,10 +53,10 @@
     <t>ATM</t>
   </si>
   <si>
-    <t>Working %</t>
+    <t>Average Use</t>
   </si>
   <si>
-    <t>Average Use</t>
+    <t>Maximum Use</t>
   </si>
   <si>
     <t>Current Contents</t>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Utilization %</t>
-  </si>
-  <si>
-    <t>Current Use</t>
   </si>
   <si>
     <t>Customer Coming In</t>
@@ -110,13 +107,13 @@
     <t>Simulation Object (V1)</t>
   </si>
   <si>
-    <t>Simulation Object (V2a) (1 OAC, 1 PA, 1 ATM)</t>
+    <t>Simulation Object (V2a)</t>
   </si>
   <si>
-    <t>Number Available</t>
+    <t>Simulation Object (V2b)</t>
   </si>
   <si>
-    <t>Simulation Object (V2b) (1 PA, 1 ATM)</t>
+    <t>Simulation Object (V2c)</t>
   </si>
 </sst>
 </file>
@@ -152,12 +149,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -165,6 +159,15 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -479,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA53D5F-4B1F-4CDF-B715-16CF8D68C889}">
-  <dimension ref="A1:BM83"/>
+  <dimension ref="A1:BM111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -497,7 +500,7 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -517,47 +520,47 @@
       <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="5">
         <v>-0.95</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="5">
         <v>0.95</v>
       </c>
-      <c r="BK1" s="4"/>
-      <c r="BM1" s="4"/>
+      <c r="BK1" s="3"/>
+      <c r="BM1" s="3"/>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2469</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>2516</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>2662</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>2536</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>2387</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="7">
         <v>2389.0090799999998</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="7">
         <v>2514</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="7">
         <v>2638.9909200000002</v>
       </c>
     </row>
@@ -566,30 +569,30 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4">
         <v>1917</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1906</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>1936</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>1911</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>1885</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>1888.09169</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>1911</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>1933.90831</v>
       </c>
     </row>
@@ -598,30 +601,30 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5">
-        <v>3</v>
-      </c>
-      <c r="G4" s="5">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5">
-        <v>3</v>
-      </c>
-      <c r="I4" s="5">
-        <v>3</v>
-      </c>
-      <c r="J4" s="5">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4">
         <v>3</v>
       </c>
     </row>
@@ -629,89 +632,89 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>88.984139999999996</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>90.435199999999995</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>91.860330000000005</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>89.60248</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>89.233419999999995</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>88.577299999999994</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>90.023110000000003</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>91.46893</v>
       </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
         <v>2.8920300000000001</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>2.93919</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>2.9855100000000001</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>2.9121299999999999</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>2.9001299999999999</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>2.8788100000000001</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>2.9258000000000002</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>2.9727899999999998</v>
       </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>2</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>2</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>2</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>2</v>
       </c>
     </row>
@@ -719,57 +722,57 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>82.049120000000002</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>81.943430000000006</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>82.057810000000003</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>81.946470000000005</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>81.996170000000006</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>81.931100000000001</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>81.998599999999996</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>82.066100000000006</v>
       </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
         <v>1.99472</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>1.9921500000000001</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>1.9949300000000001</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>1.9922299999999999</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>1.99343</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>1.9918499999999999</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>1.99349</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>1.9951300000000001</v>
       </c>
     </row>
@@ -778,30 +781,30 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="5">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>1</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>1</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>1</v>
       </c>
     </row>
@@ -809,452 +812,452 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5">
-        <v>100</v>
-      </c>
-      <c r="D11" s="5">
-        <v>99.747590000000002</v>
-      </c>
-      <c r="E11" s="5">
-        <v>99.874449999999996</v>
-      </c>
-      <c r="F11" s="5">
-        <v>100</v>
-      </c>
-      <c r="G11" s="5">
-        <v>100</v>
-      </c>
-      <c r="H11" s="5">
-        <v>99.784360000000007</v>
-      </c>
-      <c r="I11" s="5">
-        <v>99.924409999999995</v>
-      </c>
-      <c r="J11" s="5">
-        <v>100</v>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.99748000000000003</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.99873999999999996</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.99783999999999995</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.99924000000000002</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1.00064</v>
       </c>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4">
         <v>44.813420000000001</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>69.601039999999998</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>120.85866</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>52.467869999999998</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>43.107729999999997</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>26.045539999999999</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>66.169740000000004</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>106.29395</v>
       </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4">
         <v>23.248570000000001</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>34.371110000000002</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>61.350920000000002</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>26.09451</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>20.670390000000001</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>12.55653</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>33.147100000000002</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>53.737670000000001</v>
       </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="5">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4">
         <v>136.29170999999999</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>173.85338999999999</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>220.92564999999999</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>159.40592000000001</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>121.99321</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>114.89669000000001</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>162.49397999999999</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>210.09126000000001</v>
       </c>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="5">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4">
         <v>73</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>82</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>108</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>66</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>62</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>55.470680000000002</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>78.2</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>100.92932</v>
       </c>
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="5">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
         <v>0.82586000000000004</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>0.74594000000000005</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>1.29355</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>1.16252</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>0.97431999999999996</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>0.71726000000000001</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>1.00044</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>1.2836099999999999</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4">
         <v>8.5415700000000001</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>7.3355899999999998</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>11.125019999999999</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>10.89208</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>9.2630700000000008</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>7.4476000000000004</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>9.4314699999999991</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>11.415330000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4">
         <v>9</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>6</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>7</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>12</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>8</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>5.5419299999999998</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>8.4</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>11.25807</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="5">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4">
         <v>42.562600000000003</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>26.887149999999998</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>46.492400000000004</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>66.281419999999997</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>48.172989999999999</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>28.595079999999999</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>46.07931</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>63.563540000000003</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="5">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4">
         <v>58.105580000000003</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>75.259529999999998</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>79.291089999999997</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>69.332229999999996</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>46.019939999999998</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>48.78192</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>65.601669999999999</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>82.421430000000001</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="5">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4">
         <v>311.27994000000001</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>399.07089000000002</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>391.40023000000002</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>364.35203999999999</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>238.24</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>257.81900999999999</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>340.86862000000002</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>423.91822999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="5">
+        <v>16</v>
+      </c>
+      <c r="C22" s="4">
         <v>127</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>135</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>162</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>136</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>114</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>112.98763</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>134.80000000000001</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>156.61237</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="5">
+        <v>18</v>
+      </c>
+      <c r="C23" s="4">
         <v>630.67728999999997</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>808.71067000000005</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>833.58302000000003</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>693.72113999999999</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>604.43870000000004</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>586.06701999999996</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <v>714.22617000000002</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>842.38531</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>197.68029999999999</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>233.17832000000001</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>241.24322000000001</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>236.33699999999999</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <v>174.14538999999999</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>180.15234000000001</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="4">
         <v>216.51685000000001</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <v>252.88135</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="5">
+        <v>17</v>
+      </c>
+      <c r="C25" s="4">
         <v>566.28426000000002</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>613.42269999999996</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>601.04224999999997</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>651.99594000000002</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <v>524.07530999999994</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>531.13945000000001</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="4">
         <v>591.36409000000003</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <v>651.58873000000006</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26">
         <v>392</v>
@@ -1271,19 +1274,19 @@
       <c r="G26">
         <v>377</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="4">
         <v>375.49946</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="4">
         <v>434</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="4">
         <v>492.50054</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27">
         <v>1182.5391400000001</v>
@@ -1300,789 +1303,789 @@
       <c r="G27">
         <v>1093.5426299999999</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="4">
         <v>1119.2756199999999</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="4">
         <v>1194.9837399999999</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="4">
         <v>1270.6918599999999</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>2</v>
       </c>
-      <c r="E29" s="5">
-        <v>3</v>
-      </c>
-      <c r="F29" s="5">
+      <c r="E29" s="4">
+        <v>3</v>
+      </c>
+      <c r="F29" s="4">
         <v>4</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <v>5</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <v>-0.95</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="4">
         <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="4">
+        <v>2469</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2516</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2662</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2536</v>
+      </c>
+      <c r="G30" s="4">
+        <v>2387</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2389.0090799999998</v>
+      </c>
+      <c r="I30" s="4">
+        <v>2514</v>
+      </c>
+      <c r="J30" s="4">
+        <v>2638.9909200000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="5">
-        <v>2469</v>
-      </c>
-      <c r="D30" s="5">
-        <v>2516</v>
-      </c>
-      <c r="E30" s="5">
-        <v>2662</v>
-      </c>
-      <c r="F30" s="5">
-        <v>2536</v>
-      </c>
-      <c r="G30" s="5">
-        <v>2387</v>
-      </c>
-      <c r="H30" s="5">
-        <v>2389.0090799999998</v>
-      </c>
-      <c r="I30" s="5">
-        <v>2514</v>
-      </c>
-      <c r="J30" s="5">
-        <v>2638.9909200000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="4">
+        <v>2365</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2403</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2478</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2416</v>
+      </c>
+      <c r="G31" s="4">
+        <v>2296</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2308.2339900000002</v>
+      </c>
+      <c r="I31" s="4">
+        <v>2391.6</v>
+      </c>
+      <c r="J31" s="4">
+        <v>2474.9660100000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4">
+        <v>4</v>
+      </c>
+      <c r="D32" s="4">
+        <v>4</v>
+      </c>
+      <c r="E32" s="4">
+        <v>4</v>
+      </c>
+      <c r="F32" s="4">
+        <v>4</v>
+      </c>
+      <c r="G32" s="4">
+        <v>4</v>
+      </c>
+      <c r="H32" s="4">
+        <v>4</v>
+      </c>
+      <c r="I32" s="4">
+        <v>4</v>
+      </c>
+      <c r="J32" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="4">
+        <v>94.581500000000005</v>
+      </c>
+      <c r="D33" s="4">
+        <v>95.93441</v>
+      </c>
+      <c r="E33" s="4">
+        <v>99.836389999999994</v>
+      </c>
+      <c r="F33" s="4">
+        <v>95.914630000000002</v>
+      </c>
+      <c r="G33" s="4">
+        <v>95.359710000000007</v>
+      </c>
+      <c r="H33" s="4">
+        <v>93.794569999999993</v>
+      </c>
+      <c r="I33" s="4">
+        <v>96.325329999999994</v>
+      </c>
+      <c r="J33" s="4">
+        <v>98.856089999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3.07395</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3.1179199999999998</v>
+      </c>
+      <c r="E34" s="4">
+        <v>3.2447300000000001</v>
+      </c>
+      <c r="F34" s="4">
+        <v>3.1172800000000001</v>
+      </c>
+      <c r="G34" s="4">
+        <v>3.09924</v>
+      </c>
+      <c r="H34" s="4">
+        <v>3.0483699999999998</v>
+      </c>
+      <c r="I34" s="4">
+        <v>3.13062</v>
+      </c>
+      <c r="J34" s="4">
+        <v>3.2128700000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="5">
-        <v>2365</v>
-      </c>
-      <c r="D31" s="5">
-        <v>2403</v>
-      </c>
-      <c r="E31" s="5">
-        <v>2478</v>
-      </c>
-      <c r="F31" s="5">
-        <v>2416</v>
-      </c>
-      <c r="G31" s="5">
-        <v>2296</v>
-      </c>
-      <c r="H31" s="5">
-        <v>2308.2339900000002</v>
-      </c>
-      <c r="I31" s="5">
-        <v>2391.6</v>
-      </c>
-      <c r="J31" s="5">
-        <v>2474.9660100000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="5">
-        <v>3</v>
-      </c>
-      <c r="D32" s="5">
-        <v>3</v>
-      </c>
-      <c r="E32" s="5">
-        <v>3</v>
-      </c>
-      <c r="F32" s="5">
-        <v>3</v>
-      </c>
-      <c r="G32" s="5">
-        <v>3</v>
-      </c>
-      <c r="H32" s="5">
-        <v>3</v>
-      </c>
-      <c r="I32" s="5">
-        <v>3</v>
-      </c>
-      <c r="J32" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5" t="s">
+      <c r="B35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4">
+        <v>3</v>
+      </c>
+      <c r="D35" s="4">
+        <v>3</v>
+      </c>
+      <c r="E35" s="4">
+        <v>3</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3</v>
+      </c>
+      <c r="G35" s="4">
+        <v>3</v>
+      </c>
+      <c r="H35" s="4">
+        <v>3</v>
+      </c>
+      <c r="I35" s="4">
+        <v>3</v>
+      </c>
+      <c r="J35" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="5">
-        <v>94.581500000000005</v>
-      </c>
-      <c r="D33" s="5">
-        <v>95.93441</v>
-      </c>
-      <c r="E33" s="5">
-        <v>99.836389999999994</v>
-      </c>
-      <c r="F33" s="5">
-        <v>95.914630000000002</v>
-      </c>
-      <c r="G33" s="5">
-        <v>95.359710000000007</v>
-      </c>
-      <c r="H33" s="5">
-        <v>93.794569999999993</v>
-      </c>
-      <c r="I33" s="5">
-        <v>96.325329999999994</v>
-      </c>
-      <c r="J33" s="5">
-        <v>98.856089999999995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5" t="s">
+      <c r="C36" s="4">
+        <v>100.06014999999999</v>
+      </c>
+      <c r="D36" s="4">
+        <v>100.2872</v>
+      </c>
+      <c r="E36" s="4">
+        <v>99.706900000000005</v>
+      </c>
+      <c r="F36" s="4">
+        <v>100.48146</v>
+      </c>
+      <c r="G36" s="4">
+        <v>97.549629999999993</v>
+      </c>
+      <c r="H36" s="4">
+        <v>98.138350000000003</v>
+      </c>
+      <c r="I36" s="4">
+        <v>99.617069999999998</v>
+      </c>
+      <c r="J36" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2.4325899999999998</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2.43811</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2.42401</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2.4428399999999999</v>
+      </c>
+      <c r="G37" s="4">
+        <v>2.3715600000000001</v>
+      </c>
+      <c r="H37" s="4">
+        <v>2.3858700000000002</v>
+      </c>
+      <c r="I37" s="4">
+        <v>2.4218199999999999</v>
+      </c>
+      <c r="J37" s="4">
+        <v>2.45777</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4">
+        <v>2</v>
+      </c>
+      <c r="H38" s="4">
+        <v>2</v>
+      </c>
+      <c r="I38" s="4">
+        <v>2</v>
+      </c>
+      <c r="J38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1.87951</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1.9601999999999999</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1.96255</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1.9519500000000001</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1.8062</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1.8271500000000001</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1.91208</v>
+      </c>
+      <c r="J39" s="4">
+        <v>1.99702</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="4">
+        <v>26.05293</v>
+      </c>
+      <c r="D40" s="4">
+        <v>29.53932</v>
+      </c>
+      <c r="E40" s="4">
+        <v>85.326499999999996</v>
+      </c>
+      <c r="F40" s="4">
+        <v>31.682739999999999</v>
+      </c>
+      <c r="G40" s="4">
+        <v>23.035789999999999</v>
+      </c>
+      <c r="H40" s="4">
+        <v>6.8040799999999999</v>
+      </c>
+      <c r="I40" s="4">
+        <v>39.127459999999999</v>
+      </c>
+      <c r="J40" s="4">
+        <v>71.450829999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="4">
+        <v>14.693440000000001</v>
+      </c>
+      <c r="D41" s="4">
+        <v>15.652279999999999</v>
+      </c>
+      <c r="E41" s="4">
+        <v>45.632469999999998</v>
+      </c>
+      <c r="F41" s="4">
+        <v>16.42625</v>
+      </c>
+      <c r="G41" s="4">
+        <v>11.822749999999999</v>
+      </c>
+      <c r="H41" s="4">
+        <v>3.5076499999999999</v>
+      </c>
+      <c r="I41" s="4">
+        <v>20.84544</v>
+      </c>
+      <c r="J41" s="4">
+        <v>38.183230000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="4">
+        <v>114.27630000000001</v>
+      </c>
+      <c r="D42" s="4">
+        <v>113.95583000000001</v>
+      </c>
+      <c r="E42" s="4">
+        <v>156.84531999999999</v>
+      </c>
+      <c r="F42" s="4">
+        <v>86.293440000000004</v>
+      </c>
+      <c r="G42" s="4">
+        <v>81.626400000000004</v>
+      </c>
+      <c r="H42" s="4">
+        <v>73.388189999999994</v>
+      </c>
+      <c r="I42" s="4">
+        <v>110.59945999999999</v>
+      </c>
+      <c r="J42" s="4">
+        <v>147.81072</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="4">
+        <v>63</v>
+      </c>
+      <c r="D43" s="4">
+        <v>63</v>
+      </c>
+      <c r="E43" s="4">
+        <v>78</v>
+      </c>
+      <c r="F43" s="4">
+        <v>42</v>
+      </c>
+      <c r="G43" s="4">
+        <v>41</v>
+      </c>
+      <c r="H43" s="4">
+        <v>37.837569999999999</v>
+      </c>
+      <c r="I43" s="4">
+        <v>57.4</v>
+      </c>
+      <c r="J43" s="4">
+        <v>76.962429999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.31458999999999998</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.32621</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.46562999999999999</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.37319000000000002</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0.32306000000000001</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0.28227000000000002</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0.36054000000000003</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0.43880000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="4">
+        <v>3.2537199999999999</v>
+      </c>
+      <c r="D45" s="4">
+        <v>3.2079499999999999</v>
+      </c>
+      <c r="E45" s="4">
+        <v>3.9937800000000001</v>
+      </c>
+      <c r="F45" s="4">
+        <v>3.4829300000000001</v>
+      </c>
+      <c r="G45" s="4">
+        <v>3.06392</v>
+      </c>
+      <c r="H45" s="4">
+        <v>2.9482699999999999</v>
+      </c>
+      <c r="I45" s="4">
+        <v>3.4004599999999998</v>
+      </c>
+      <c r="J45" s="4">
+        <v>3.8526500000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="4">
         <v>6</v>
       </c>
-      <c r="C34" s="5">
-        <v>3.07395</v>
-      </c>
-      <c r="D34" s="5">
-        <v>3.1179199999999998</v>
-      </c>
-      <c r="E34" s="5">
-        <v>3.2447300000000001</v>
-      </c>
-      <c r="F34" s="5">
-        <v>3.1172800000000001</v>
-      </c>
-      <c r="G34" s="5">
-        <v>3.09924</v>
-      </c>
-      <c r="H34" s="5">
-        <v>3.0483699999999998</v>
-      </c>
-      <c r="I34" s="5">
-        <v>3.13062</v>
-      </c>
-      <c r="J34" s="5">
-        <v>3.2128700000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="D46" s="4">
+        <v>4</v>
+      </c>
+      <c r="E46" s="4">
+        <v>5</v>
+      </c>
+      <c r="F46" s="4">
+        <v>7</v>
+      </c>
+      <c r="G46" s="4">
+        <v>4</v>
+      </c>
+      <c r="H46" s="4">
+        <v>3.5813299999999999</v>
+      </c>
+      <c r="I46" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="J46" s="4">
+        <v>6.81867</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="4">
+        <v>18.5749</v>
+      </c>
+      <c r="D47" s="4">
+        <v>13.26825</v>
+      </c>
+      <c r="E47" s="4">
+        <v>15.539849999999999</v>
+      </c>
+      <c r="F47" s="4">
+        <v>20.858529999999998</v>
+      </c>
+      <c r="G47" s="4">
+        <v>12.28041</v>
+      </c>
+      <c r="H47" s="4">
+        <v>11.64156</v>
+      </c>
+      <c r="I47" s="4">
+        <v>16.104389999999999</v>
+      </c>
+      <c r="J47" s="4">
+        <v>20.567209999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="4">
+        <v>28.217179999999999</v>
+      </c>
+      <c r="D48" s="4">
+        <v>43.083030000000001</v>
+      </c>
+      <c r="E48" s="4">
+        <v>48.127540000000003</v>
+      </c>
+      <c r="F48" s="4">
+        <v>35.748939999999997</v>
+      </c>
+      <c r="G48" s="4">
+        <v>19.882110000000001</v>
+      </c>
+      <c r="H48" s="4">
+        <v>20.95542</v>
+      </c>
+      <c r="I48" s="4">
+        <v>35.011760000000002</v>
+      </c>
+      <c r="J48" s="4">
+        <v>49.068100000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="4">
+        <v>147.93744000000001</v>
+      </c>
+      <c r="D49" s="4">
+        <v>236.13449</v>
+      </c>
+      <c r="E49" s="4">
+        <v>240.37151</v>
+      </c>
+      <c r="F49" s="4">
+        <v>184.73860999999999</v>
+      </c>
+      <c r="G49" s="4">
+        <v>103.30498</v>
+      </c>
+      <c r="H49" s="4">
+        <v>109.84995000000001</v>
+      </c>
+      <c r="I49" s="4">
+        <v>182.49741</v>
+      </c>
+      <c r="J49" s="4">
+        <v>255.14487</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="4">
+        <v>65</v>
+      </c>
+      <c r="D50" s="4">
+        <v>71</v>
+      </c>
+      <c r="E50" s="4">
+        <v>100</v>
+      </c>
+      <c r="F50" s="4">
+        <v>72</v>
+      </c>
+      <c r="G50" s="4">
+        <v>58</v>
+      </c>
+      <c r="H50" s="4">
+        <v>53.348199999999999</v>
+      </c>
+      <c r="I50" s="4">
+        <v>73.2</v>
+      </c>
+      <c r="J50" s="4">
+        <v>93.0518</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="4">
+        <v>310.97969000000001</v>
+      </c>
+      <c r="D51" s="4">
+        <v>448.27620000000002</v>
+      </c>
+      <c r="E51" s="4">
+        <v>476.76571999999999</v>
+      </c>
+      <c r="F51" s="4">
+        <v>369.95949000000002</v>
+      </c>
+      <c r="G51" s="4">
+        <v>266.47847000000002</v>
+      </c>
+      <c r="H51" s="4">
+        <v>264.10392999999999</v>
+      </c>
+      <c r="I51" s="4">
+        <v>374.49191000000002</v>
+      </c>
+      <c r="J51" s="4">
+        <v>484.87990000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="5">
-        <v>3</v>
-      </c>
-      <c r="D35" s="5">
-        <v>3</v>
-      </c>
-      <c r="E35" s="5">
-        <v>3</v>
-      </c>
-      <c r="F35" s="5">
-        <v>3</v>
-      </c>
-      <c r="G35" s="5">
-        <v>3</v>
-      </c>
-      <c r="H35" s="5">
-        <v>3</v>
-      </c>
-      <c r="I35" s="5">
-        <v>3</v>
-      </c>
-      <c r="J35" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="5">
-        <v>100.06014999999999</v>
-      </c>
-      <c r="D36" s="5">
-        <v>100.2872</v>
-      </c>
-      <c r="E36" s="5">
-        <v>99.706900000000005</v>
-      </c>
-      <c r="F36" s="5">
-        <v>100.48146</v>
-      </c>
-      <c r="G36" s="5">
-        <v>97.549629999999993</v>
-      </c>
-      <c r="H36" s="5">
-        <v>98.138350000000003</v>
-      </c>
-      <c r="I36" s="5">
-        <v>99.617069999999998</v>
-      </c>
-      <c r="J36" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="5">
-        <v>2.4325899999999998</v>
-      </c>
-      <c r="D37" s="5">
-        <v>2.43811</v>
-      </c>
-      <c r="E37" s="5">
-        <v>2.42401</v>
-      </c>
-      <c r="F37" s="5">
-        <v>2.4428399999999999</v>
-      </c>
-      <c r="G37" s="5">
-        <v>2.3715600000000001</v>
-      </c>
-      <c r="H37" s="5">
-        <v>2.3858700000000002</v>
-      </c>
-      <c r="I37" s="5">
-        <v>2.4218199999999999</v>
-      </c>
-      <c r="J37" s="5">
-        <v>2.45777</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="5">
-        <v>2</v>
-      </c>
-      <c r="D38" s="5">
-        <v>2</v>
-      </c>
-      <c r="E38" s="5">
-        <v>2</v>
-      </c>
-      <c r="F38" s="5">
-        <v>2</v>
-      </c>
-      <c r="G38" s="5">
-        <v>2</v>
-      </c>
-      <c r="H38" s="5">
-        <v>2</v>
-      </c>
-      <c r="I38" s="5">
-        <v>2</v>
-      </c>
-      <c r="J38" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="5">
-        <v>0</v>
-      </c>
-      <c r="D39" s="5">
-        <v>0</v>
-      </c>
-      <c r="E39" s="5">
-        <v>0</v>
-      </c>
-      <c r="F39" s="5">
-        <v>0</v>
-      </c>
-      <c r="G39" s="5">
-        <v>0</v>
-      </c>
-      <c r="H39" s="5">
-        <v>0</v>
-      </c>
-      <c r="I39" s="5">
-        <v>0</v>
-      </c>
-      <c r="J39" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="5">
-        <v>26.05293</v>
-      </c>
-      <c r="D40" s="5">
-        <v>29.53932</v>
-      </c>
-      <c r="E40" s="5">
-        <v>85.326499999999996</v>
-      </c>
-      <c r="F40" s="5">
-        <v>31.682739999999999</v>
-      </c>
-      <c r="G40" s="5">
-        <v>23.035789999999999</v>
-      </c>
-      <c r="H40" s="5">
-        <v>6.8040799999999999</v>
-      </c>
-      <c r="I40" s="5">
-        <v>39.127459999999999</v>
-      </c>
-      <c r="J40" s="5">
-        <v>71.450829999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="5">
-        <v>14.693440000000001</v>
-      </c>
-      <c r="D41" s="5">
-        <v>15.652279999999999</v>
-      </c>
-      <c r="E41" s="5">
-        <v>45.632469999999998</v>
-      </c>
-      <c r="F41" s="5">
-        <v>16.42625</v>
-      </c>
-      <c r="G41" s="5">
-        <v>11.822749999999999</v>
-      </c>
-      <c r="H41" s="5">
-        <v>3.5076499999999999</v>
-      </c>
-      <c r="I41" s="5">
-        <v>20.84544</v>
-      </c>
-      <c r="J41" s="5">
-        <v>38.183230000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="5">
-        <v>114.27630000000001</v>
-      </c>
-      <c r="D42" s="5">
-        <v>113.95583000000001</v>
-      </c>
-      <c r="E42" s="5">
-        <v>156.84531999999999</v>
-      </c>
-      <c r="F42" s="5">
-        <v>86.293440000000004</v>
-      </c>
-      <c r="G42" s="5">
-        <v>81.626400000000004</v>
-      </c>
-      <c r="H42" s="5">
-        <v>73.388189999999994</v>
-      </c>
-      <c r="I42" s="5">
-        <v>110.59945999999999</v>
-      </c>
-      <c r="J42" s="5">
-        <v>147.81072</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5" t="s">
+      <c r="B52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="4">
+        <v>12.05453</v>
+      </c>
+      <c r="D52" s="4">
+        <v>32.178040000000003</v>
+      </c>
+      <c r="E52" s="4">
+        <v>36.970059999999997</v>
+      </c>
+      <c r="F52" s="4">
+        <v>26.398440000000001</v>
+      </c>
+      <c r="G52" s="4">
+        <v>9.9290900000000004</v>
+      </c>
+      <c r="H52" s="4">
+        <v>8.5526900000000001</v>
+      </c>
+      <c r="I52" s="4">
+        <v>23.506029999999999</v>
+      </c>
+      <c r="J52" s="4">
+        <v>38.45937</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="5">
-        <v>63</v>
-      </c>
-      <c r="D43" s="5">
-        <v>63</v>
-      </c>
-      <c r="E43" s="5">
-        <v>78</v>
-      </c>
-      <c r="F43" s="5">
-        <v>42</v>
-      </c>
-      <c r="G43" s="5">
-        <v>41</v>
-      </c>
-      <c r="H43" s="5">
-        <v>37.837569999999999</v>
-      </c>
-      <c r="I43" s="5">
-        <v>57.4</v>
-      </c>
-      <c r="J43" s="5">
-        <v>76.962429999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="5">
-        <v>0.31458999999999998</v>
-      </c>
-      <c r="D44" s="5">
-        <v>0.32621</v>
-      </c>
-      <c r="E44" s="5">
-        <v>0.46562999999999999</v>
-      </c>
-      <c r="F44" s="5">
-        <v>0.37319000000000002</v>
-      </c>
-      <c r="G44" s="5">
-        <v>0.32306000000000001</v>
-      </c>
-      <c r="H44" s="5">
-        <v>0.28227000000000002</v>
-      </c>
-      <c r="I44" s="5">
-        <v>0.36054000000000003</v>
-      </c>
-      <c r="J44" s="5">
-        <v>0.43880000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="5">
-        <v>3.2537199999999999</v>
-      </c>
-      <c r="D45" s="5">
-        <v>3.2079499999999999</v>
-      </c>
-      <c r="E45" s="5">
-        <v>3.9937800000000001</v>
-      </c>
-      <c r="F45" s="5">
-        <v>3.4829300000000001</v>
-      </c>
-      <c r="G45" s="5">
-        <v>3.06392</v>
-      </c>
-      <c r="H45" s="5">
-        <v>2.9482699999999999</v>
-      </c>
-      <c r="I45" s="5">
-        <v>3.4004599999999998</v>
-      </c>
-      <c r="J45" s="5">
-        <v>3.8526500000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="5">
-        <v>6</v>
-      </c>
-      <c r="D46" s="5">
-        <v>4</v>
-      </c>
-      <c r="E46" s="5">
-        <v>5</v>
-      </c>
-      <c r="F46" s="5">
-        <v>7</v>
-      </c>
-      <c r="G46" s="5">
-        <v>4</v>
-      </c>
-      <c r="H46" s="5">
-        <v>3.5813299999999999</v>
-      </c>
-      <c r="I46" s="5">
-        <v>5.2</v>
-      </c>
-      <c r="J46" s="5">
-        <v>6.81867</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="5">
-        <v>18.5749</v>
-      </c>
-      <c r="D47" s="5">
-        <v>13.26825</v>
-      </c>
-      <c r="E47" s="5">
-        <v>15.539849999999999</v>
-      </c>
-      <c r="F47" s="5">
-        <v>20.858529999999998</v>
-      </c>
-      <c r="G47" s="5">
-        <v>12.28041</v>
-      </c>
-      <c r="H47" s="5">
-        <v>11.64156</v>
-      </c>
-      <c r="I47" s="5">
-        <v>16.104389999999999</v>
-      </c>
-      <c r="J47" s="5">
-        <v>20.567209999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="5">
-        <v>28.217179999999999</v>
-      </c>
-      <c r="D48" s="5">
-        <v>43.083030000000001</v>
-      </c>
-      <c r="E48" s="5">
-        <v>48.127540000000003</v>
-      </c>
-      <c r="F48" s="5">
-        <v>35.748939999999997</v>
-      </c>
-      <c r="G48" s="5">
-        <v>19.882110000000001</v>
-      </c>
-      <c r="H48" s="5">
-        <v>20.95542</v>
-      </c>
-      <c r="I48" s="5">
-        <v>35.011760000000002</v>
-      </c>
-      <c r="J48" s="5">
-        <v>49.068100000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="5">
-        <v>147.93744000000001</v>
-      </c>
-      <c r="D49" s="5">
-        <v>236.13449</v>
-      </c>
-      <c r="E49" s="5">
-        <v>240.37151</v>
-      </c>
-      <c r="F49" s="5">
-        <v>184.73860999999999</v>
-      </c>
-      <c r="G49" s="5">
-        <v>103.30498</v>
-      </c>
-      <c r="H49" s="5">
-        <v>109.84995000000001</v>
-      </c>
-      <c r="I49" s="5">
-        <v>182.49741</v>
-      </c>
-      <c r="J49" s="5">
-        <v>255.14487</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="5">
-        <v>65</v>
-      </c>
-      <c r="D50" s="5">
-        <v>71</v>
-      </c>
-      <c r="E50" s="5">
-        <v>100</v>
-      </c>
-      <c r="F50" s="5">
-        <v>72</v>
-      </c>
-      <c r="G50" s="5">
-        <v>58</v>
-      </c>
-      <c r="H50" s="5">
-        <v>53.348199999999999</v>
-      </c>
-      <c r="I50" s="5">
-        <v>73.2</v>
-      </c>
-      <c r="J50" s="5">
-        <v>93.0518</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="5">
-        <v>310.97969000000001</v>
-      </c>
-      <c r="D51" s="5">
-        <v>448.27620000000002</v>
-      </c>
-      <c r="E51" s="5">
-        <v>476.76571999999999</v>
-      </c>
-      <c r="F51" s="5">
-        <v>369.95949000000002</v>
-      </c>
-      <c r="G51" s="5">
-        <v>266.47847000000002</v>
-      </c>
-      <c r="H51" s="5">
-        <v>264.10392999999999</v>
-      </c>
-      <c r="I51" s="5">
-        <v>374.49191000000002</v>
-      </c>
-      <c r="J51" s="5">
-        <v>484.87990000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="5">
-        <v>12.05453</v>
-      </c>
-      <c r="D52" s="5">
-        <v>32.178040000000003</v>
-      </c>
-      <c r="E52" s="5">
-        <v>36.970059999999997</v>
-      </c>
-      <c r="F52" s="5">
-        <v>26.398440000000001</v>
-      </c>
-      <c r="G52" s="5">
-        <v>9.9290900000000004</v>
-      </c>
-      <c r="H52" s="5">
-        <v>8.5526900000000001</v>
-      </c>
-      <c r="I52" s="5">
-        <v>23.506029999999999</v>
-      </c>
-      <c r="J52" s="5">
-        <v>38.45937</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <v>34.821339999999999</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <v>86.508859999999999</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="4">
         <v>95.588009999999997</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="4">
         <v>69.919979999999995</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="4">
         <v>29.565989999999999</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="4">
         <v>26.171589999999998</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I53" s="4">
         <v>63.280839999999998</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="4">
         <v>100.39009</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C54">
         <v>35</v>
@@ -2099,19 +2102,19 @@
       <c r="G54">
         <v>35</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="4">
         <v>30.87407</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="4">
         <v>54</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="4">
         <v>77.125929999999997</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55">
         <v>111.23013</v>
@@ -2128,19 +2131,19 @@
       <c r="G55">
         <v>98.964889999999997</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="4">
         <v>95.885239999999996</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="4">
         <v>144.05068</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="4">
         <v>192.21610999999999</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
@@ -2160,22 +2163,22 @@
       <c r="G57">
         <v>5</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="5">
         <v>-0.95</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J57" s="5">
         <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
         <v>11</v>
-      </c>
-      <c r="B58" t="s">
-        <v>12</v>
       </c>
       <c r="C58">
         <v>2469</v>
@@ -2192,13 +2195,13 @@
       <c r="G58">
         <v>2387</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="7">
         <v>2389.0090799999998</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="7">
         <v>2514</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="7">
         <v>2638.9909200000002</v>
       </c>
     </row>
@@ -2207,7 +2210,7 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59">
         <v>2323</v>
@@ -2224,13 +2227,13 @@
       <c r="G59">
         <v>2256</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="7">
         <v>2268.12311</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="7">
         <v>2319.1999999999998</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="7">
         <v>2370.2768900000001</v>
       </c>
     </row>
@@ -2239,7 +2242,7 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -2256,13 +2259,13 @@
       <c r="G60">
         <v>3</v>
       </c>
-      <c r="H60">
-        <v>3</v>
-      </c>
-      <c r="I60">
-        <v>3</v>
-      </c>
-      <c r="J60">
+      <c r="H60" s="7">
+        <v>3</v>
+      </c>
+      <c r="I60" s="7">
+        <v>3</v>
+      </c>
+      <c r="J60" s="7">
         <v>3</v>
       </c>
     </row>
@@ -2285,19 +2288,19 @@
       <c r="G61">
         <v>91.390749999999997</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="7">
         <v>91.17559</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="7">
         <v>91.519930000000002</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="7">
         <v>91.864260000000002</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62">
         <v>2.9788800000000002</v>
@@ -2314,22 +2317,22 @@
       <c r="G62">
         <v>2.9702500000000001</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="7">
         <v>2.9632499999999999</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="7">
         <v>2.97445</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="7">
         <v>2.9856400000000001</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -2346,13 +2349,13 @@
       <c r="G63">
         <v>3</v>
       </c>
-      <c r="H63">
-        <v>3</v>
-      </c>
-      <c r="I63">
-        <v>3</v>
-      </c>
-      <c r="J63">
+      <c r="H63" s="7">
+        <v>3</v>
+      </c>
+      <c r="I63" s="7">
+        <v>3</v>
+      </c>
+      <c r="J63" s="7">
         <v>3</v>
       </c>
     </row>
@@ -2375,19 +2378,19 @@
       <c r="G64">
         <v>98.385120000000001</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="7">
         <v>98.809640000000002</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="7">
         <v>99.847859999999997</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65">
         <v>2.4326599999999998</v>
@@ -2404,13 +2407,13 @@
       <c r="G65">
         <v>2.3918699999999999</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="7">
         <v>2.40219</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="7">
         <v>2.4274300000000002</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="7">
         <v>2.4526699999999999</v>
       </c>
     </row>
@@ -2436,13 +2439,13 @@
       <c r="G66">
         <v>2</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="7">
         <v>2</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="7">
         <v>2</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="7">
         <v>2</v>
       </c>
     </row>
@@ -2451,36 +2454,36 @@
         <v>5</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1.87951</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1.9601999999999999</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1.96255</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1.9519500000000001</v>
       </c>
       <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
+        <v>1.8062</v>
+      </c>
+      <c r="H67" s="7">
+        <v>1.8271500000000001</v>
+      </c>
+      <c r="I67" s="7">
+        <v>1.91208</v>
+      </c>
+      <c r="J67" s="7">
+        <v>1.99702</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C68">
         <v>77.176479999999998</v>
@@ -2497,19 +2500,19 @@
       <c r="G68">
         <v>64.394999999999996</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="7">
         <v>53.409889999999997</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="7">
         <v>110.27869</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="7">
         <v>167.14748</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C69">
         <v>42.450780000000002</v>
@@ -2526,19 +2529,19 @@
       <c r="G69">
         <v>33.463380000000001</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="7">
         <v>27.990379999999998</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="7">
         <v>59.11985</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="7">
         <v>90.249319999999997</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C70">
         <v>189.3981</v>
@@ -2555,19 +2558,19 @@
       <c r="G70">
         <v>171.53666999999999</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="7">
         <v>146.27986999999999</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="7">
         <v>238.32945000000001</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="7">
         <v>330.37903</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C71">
         <v>108</v>
@@ -2584,22 +2587,22 @@
       <c r="G71">
         <v>90</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="7">
         <v>77.181359999999998</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="7">
         <v>121.2</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="7">
         <v>165.21863999999999</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C72">
         <v>0.91640999999999995</v>
@@ -2616,19 +2619,19 @@
       <c r="G72">
         <v>0.96379000000000004</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="7">
         <v>0.75278</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="7">
         <v>0.99200999999999995</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="7">
         <v>1.2312399999999999</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C73">
         <v>9.4780999999999995</v>
@@ -2645,19 +2648,19 @@
       <c r="G73">
         <v>9.1636000000000006</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="7">
         <v>7.7313000000000001</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="7">
         <v>9.3743700000000008</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="7">
         <v>11.017429999999999</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C74">
         <v>9</v>
@@ -2674,19 +2677,19 @@
       <c r="G74">
         <v>8</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="7">
         <v>4.9865500000000003</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="7">
         <v>11.413449999999999</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C75">
         <v>44.738810000000001</v>
@@ -2703,22 +2706,22 @@
       <c r="G75">
         <v>43.504519999999999</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="7">
         <v>28.993780000000001</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="7">
         <v>42.508330000000001</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="7">
         <v>56.022880000000001</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76">
         <v>25.28003</v>
@@ -2735,19 +2738,19 @@
       <c r="G76">
         <v>17.42173</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="7">
         <v>18.44764</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="7">
         <v>33.009390000000003</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="7">
         <v>47.571150000000003</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77">
         <v>133.49716000000001</v>
@@ -2764,19 +2767,19 @@
       <c r="G77">
         <v>89.947919999999996</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="7">
         <v>96.56223</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="7">
         <v>172.05454</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="7">
         <v>247.54685000000001</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C78">
         <v>61</v>
@@ -2793,19 +2796,19 @@
       <c r="G78">
         <v>54</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="7">
         <v>49.887720000000002</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="7">
         <v>70.2</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="7">
         <v>90.512280000000004</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C79">
         <v>296.54221999999999</v>
@@ -2822,22 +2825,22 @@
       <c r="G79">
         <v>254.00828999999999</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="7">
         <v>253.06872999999999</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="7">
         <v>358.39258000000001</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="7">
         <v>463.71643999999998</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
         <v>15</v>
-      </c>
-      <c r="B80" t="s">
-        <v>16</v>
       </c>
       <c r="C80">
         <v>12.05453</v>
@@ -2854,19 +2857,19 @@
       <c r="G80">
         <v>9.9290900000000004</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="7">
         <v>8.5526900000000001</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="7">
         <v>23.506029999999999</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="7">
         <v>38.45937</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C81">
         <v>34.821339999999999</v>
@@ -2883,19 +2886,19 @@
       <c r="G81">
         <v>29.565989999999999</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="7">
         <v>26.171589999999998</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="7">
         <v>63.280839999999998</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="7">
         <v>100.39009</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C82">
         <v>35</v>
@@ -2912,19 +2915,19 @@
       <c r="G82">
         <v>35</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="7">
         <v>30.87407</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="7">
         <v>54</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="7">
         <v>77.125929999999997</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C83">
         <v>111.23013</v>
@@ -2941,14 +2944,827 @@
       <c r="G83">
         <v>98.964889999999997</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="7">
         <v>95.885239999999996</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="7">
         <v>144.05068</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="7">
         <v>192.21610999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="G85">
+        <v>5</v>
+      </c>
+      <c r="H85" s="3">
+        <v>-0.95</v>
+      </c>
+      <c r="I85" t="s">
+        <v>2</v>
+      </c>
+      <c r="J85" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86">
+        <v>2469</v>
+      </c>
+      <c r="D86">
+        <v>2516</v>
+      </c>
+      <c r="E86">
+        <v>2662</v>
+      </c>
+      <c r="F86">
+        <v>2536</v>
+      </c>
+      <c r="G86">
+        <v>2387</v>
+      </c>
+      <c r="H86" s="4">
+        <v>2389.0090799999998</v>
+      </c>
+      <c r="I86" s="4">
+        <v>2514</v>
+      </c>
+      <c r="J86" s="4">
+        <v>2638.9909200000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>2376</v>
+      </c>
+      <c r="D87">
+        <v>2445</v>
+      </c>
+      <c r="E87">
+        <v>2532</v>
+      </c>
+      <c r="F87">
+        <v>2445</v>
+      </c>
+      <c r="G87">
+        <v>2325</v>
+      </c>
+      <c r="H87" s="4">
+        <v>2327.1446099999998</v>
+      </c>
+      <c r="I87" s="4">
+        <v>2424.6</v>
+      </c>
+      <c r="J87" s="4">
+        <v>2522.05539</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>4</v>
+      </c>
+      <c r="G88">
+        <v>4</v>
+      </c>
+      <c r="H88" s="4">
+        <v>4</v>
+      </c>
+      <c r="I88" s="4">
+        <v>4</v>
+      </c>
+      <c r="J88" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>94.587280000000007</v>
+      </c>
+      <c r="D89">
+        <v>98.060069999999996</v>
+      </c>
+      <c r="E89">
+        <v>99.72945</v>
+      </c>
+      <c r="F89">
+        <v>96.209329999999994</v>
+      </c>
+      <c r="G89">
+        <v>94.9636</v>
+      </c>
+      <c r="H89" s="4">
+        <v>94.022360000000006</v>
+      </c>
+      <c r="I89" s="4">
+        <v>96.709950000000006</v>
+      </c>
+      <c r="J89" s="4">
+        <v>99.397530000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>3.0741399999999999</v>
+      </c>
+      <c r="D90">
+        <v>3.1869999999999998</v>
+      </c>
+      <c r="E90">
+        <v>3.24126</v>
+      </c>
+      <c r="F90">
+        <v>3.1268500000000001</v>
+      </c>
+      <c r="G90">
+        <v>3.0863700000000001</v>
+      </c>
+      <c r="H90" s="4">
+        <v>3.0557799999999999</v>
+      </c>
+      <c r="I90" s="4">
+        <v>3.1431200000000001</v>
+      </c>
+      <c r="J90" s="4">
+        <v>3.23047</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+      <c r="H91" s="4">
+        <v>3</v>
+      </c>
+      <c r="I91" s="4">
+        <v>3</v>
+      </c>
+      <c r="J91" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92">
+        <v>100.06303</v>
+      </c>
+      <c r="D92">
+        <v>100.25897999999999</v>
+      </c>
+      <c r="E92">
+        <v>100.05069</v>
+      </c>
+      <c r="F92">
+        <v>100.48146</v>
+      </c>
+      <c r="G92">
+        <v>98.385120000000001</v>
+      </c>
+      <c r="H92" s="4">
+        <v>98.809640000000002</v>
+      </c>
+      <c r="I92" s="4">
+        <v>99.847859999999997</v>
+      </c>
+      <c r="J92" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>2.4326599999999998</v>
+      </c>
+      <c r="D93">
+        <v>2.43743</v>
+      </c>
+      <c r="E93">
+        <v>2.4323600000000001</v>
+      </c>
+      <c r="F93">
+        <v>2.4428399999999999</v>
+      </c>
+      <c r="G93">
+        <v>2.3918699999999999</v>
+      </c>
+      <c r="H93" s="4">
+        <v>2.40219</v>
+      </c>
+      <c r="I93" s="4">
+        <v>2.4274300000000002</v>
+      </c>
+      <c r="J93" s="4">
+        <v>2.4526699999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94" s="4">
+        <v>0.16131999999999999</v>
+      </c>
+      <c r="I94" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="J94" s="4">
+        <v>2.23868</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>1.8981600000000001</v>
+      </c>
+      <c r="D95">
+        <v>2.08487</v>
+      </c>
+      <c r="E95">
+        <v>2.0787</v>
+      </c>
+      <c r="F95">
+        <v>2.0374500000000002</v>
+      </c>
+      <c r="G95">
+        <v>1.85914</v>
+      </c>
+      <c r="H95" s="4">
+        <v>1.8604799999999999</v>
+      </c>
+      <c r="I95" s="4">
+        <v>1.99166</v>
+      </c>
+      <c r="J95" s="4">
+        <v>2.1228500000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96">
+        <v>27.467169999999999</v>
+      </c>
+      <c r="D96">
+        <v>39.658410000000003</v>
+      </c>
+      <c r="E96">
+        <v>82.220100000000002</v>
+      </c>
+      <c r="F96">
+        <v>43.208320000000001</v>
+      </c>
+      <c r="G96">
+        <v>27.43036</v>
+      </c>
+      <c r="H96" s="4">
+        <v>16.042269999999998</v>
+      </c>
+      <c r="I96" s="4">
+        <v>43.996870000000001</v>
+      </c>
+      <c r="J96" s="4">
+        <v>71.951480000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97">
+        <v>15.354010000000001</v>
+      </c>
+      <c r="D97">
+        <v>21.141539999999999</v>
+      </c>
+      <c r="E97">
+        <v>44.209040000000002</v>
+      </c>
+      <c r="F97">
+        <v>22.63043</v>
+      </c>
+      <c r="G97">
+        <v>14.04546</v>
+      </c>
+      <c r="H97" s="4">
+        <v>8.3867399999999996</v>
+      </c>
+      <c r="I97" s="4">
+        <v>23.476099999999999</v>
+      </c>
+      <c r="J97" s="4">
+        <v>38.565449999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98">
+        <v>112.40998</v>
+      </c>
+      <c r="D98">
+        <v>135.08394999999999</v>
+      </c>
+      <c r="E98">
+        <v>139.06626</v>
+      </c>
+      <c r="F98">
+        <v>116.2458</v>
+      </c>
+      <c r="G98">
+        <v>110.20777</v>
+      </c>
+      <c r="H98" s="4">
+        <v>105.89172000000001</v>
+      </c>
+      <c r="I98" s="4">
+        <v>122.60276</v>
+      </c>
+      <c r="J98" s="4">
+        <v>139.31379000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99">
+        <v>61</v>
+      </c>
+      <c r="D99">
+        <v>72</v>
+      </c>
+      <c r="E99">
+        <v>77</v>
+      </c>
+      <c r="F99">
+        <v>49</v>
+      </c>
+      <c r="G99">
+        <v>44</v>
+      </c>
+      <c r="H99" s="4">
+        <v>42.942369999999997</v>
+      </c>
+      <c r="I99" s="4">
+        <v>60.6</v>
+      </c>
+      <c r="J99" s="4">
+        <v>78.257630000000006</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100">
+        <v>0.83226</v>
+      </c>
+      <c r="D100">
+        <v>0.76649999999999996</v>
+      </c>
+      <c r="E100">
+        <v>1.26414</v>
+      </c>
+      <c r="F100">
+        <v>1.1412</v>
+      </c>
+      <c r="G100">
+        <v>0.87029999999999996</v>
+      </c>
+      <c r="H100" s="4">
+        <v>0.70714999999999995</v>
+      </c>
+      <c r="I100" s="4">
+        <v>0.97487999999999997</v>
+      </c>
+      <c r="J100" s="4">
+        <v>1.24261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101">
+        <v>8.60778</v>
+      </c>
+      <c r="D101">
+        <v>7.53775</v>
+      </c>
+      <c r="E101">
+        <v>10.872019999999999</v>
+      </c>
+      <c r="F101">
+        <v>10.692259999999999</v>
+      </c>
+      <c r="G101">
+        <v>8.2595799999999997</v>
+      </c>
+      <c r="H101" s="4">
+        <v>7.3295599999999999</v>
+      </c>
+      <c r="I101" s="4">
+        <v>9.1938800000000001</v>
+      </c>
+      <c r="J101" s="4">
+        <v>11.05819</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102">
+        <v>8</v>
+      </c>
+      <c r="D102">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>7</v>
+      </c>
+      <c r="F102">
+        <v>11</v>
+      </c>
+      <c r="G102">
+        <v>7</v>
+      </c>
+      <c r="H102" s="4">
+        <v>5.4119900000000003</v>
+      </c>
+      <c r="I102" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="J102" s="4">
+        <v>10.18801</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103">
+        <v>39.106099999999998</v>
+      </c>
+      <c r="D103">
+        <v>27.409929999999999</v>
+      </c>
+      <c r="E103">
+        <v>42.09328</v>
+      </c>
+      <c r="F103">
+        <v>66.431889999999996</v>
+      </c>
+      <c r="G103">
+        <v>36.807479999999998</v>
+      </c>
+      <c r="H103" s="4">
+        <v>24.331620000000001</v>
+      </c>
+      <c r="I103" s="4">
+        <v>42.36974</v>
+      </c>
+      <c r="J103" s="4">
+        <v>60.407850000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104">
+        <v>26.52318</v>
+      </c>
+      <c r="D104">
+        <v>44.405180000000001</v>
+      </c>
+      <c r="E104">
+        <v>48.364159999999998</v>
+      </c>
+      <c r="F104">
+        <v>35.869669999999999</v>
+      </c>
+      <c r="G104">
+        <v>18.286359999999998</v>
+      </c>
+      <c r="H104" s="4">
+        <v>19.25187</v>
+      </c>
+      <c r="I104" s="4">
+        <v>34.689709999999998</v>
+      </c>
+      <c r="J104" s="4">
+        <v>50.127560000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105">
+        <v>138.88224</v>
+      </c>
+      <c r="D105">
+        <v>240.18107000000001</v>
+      </c>
+      <c r="E105">
+        <v>238.43555000000001</v>
+      </c>
+      <c r="F105">
+        <v>186.84943000000001</v>
+      </c>
+      <c r="G105">
+        <v>93.604489999999998</v>
+      </c>
+      <c r="H105" s="4">
+        <v>100.49305</v>
+      </c>
+      <c r="I105" s="4">
+        <v>179.59056000000001</v>
+      </c>
+      <c r="J105" s="4">
+        <v>258.68806000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106">
+        <v>65</v>
+      </c>
+      <c r="D106">
+        <v>74</v>
+      </c>
+      <c r="E106">
+        <v>102</v>
+      </c>
+      <c r="F106">
+        <v>69</v>
+      </c>
+      <c r="G106">
+        <v>56</v>
+      </c>
+      <c r="H106" s="4">
+        <v>51.600650000000002</v>
+      </c>
+      <c r="I106" s="4">
+        <v>73.2</v>
+      </c>
+      <c r="J106" s="4">
+        <v>94.799350000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107">
+        <v>303.59199999999998</v>
+      </c>
+      <c r="D107">
+        <v>453.4128</v>
+      </c>
+      <c r="E107">
+        <v>484.85802999999999</v>
+      </c>
+      <c r="F107">
+        <v>360.92989</v>
+      </c>
+      <c r="G107">
+        <v>265.80732</v>
+      </c>
+      <c r="H107" s="4">
+        <v>256.88161000000002</v>
+      </c>
+      <c r="I107" s="4">
+        <v>373.72001</v>
+      </c>
+      <c r="J107" s="4">
+        <v>490.55840999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108">
+        <v>0.49922</v>
+      </c>
+      <c r="D108">
+        <v>0.54132999999999998</v>
+      </c>
+      <c r="E108">
+        <v>0.82672999999999996</v>
+      </c>
+      <c r="F108">
+        <v>0.72523000000000004</v>
+      </c>
+      <c r="G108">
+        <v>0.36316999999999999</v>
+      </c>
+      <c r="H108" s="4">
+        <v>0.3619</v>
+      </c>
+      <c r="I108" s="4">
+        <v>0.59113000000000004</v>
+      </c>
+      <c r="J108" s="4">
+        <v>0.82037000000000004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109">
+        <v>1.4328799999999999</v>
+      </c>
+      <c r="D109">
+        <v>1.4677100000000001</v>
+      </c>
+      <c r="E109">
+        <v>2.1330499999999999</v>
+      </c>
+      <c r="F109">
+        <v>1.93784</v>
+      </c>
+      <c r="G109">
+        <v>1.09474</v>
+      </c>
+      <c r="H109" s="4">
+        <v>1.0946</v>
+      </c>
+      <c r="I109" s="4">
+        <v>1.61324</v>
+      </c>
+      <c r="J109" s="4">
+        <v>2.1318800000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110">
+        <v>13</v>
+      </c>
+      <c r="D110">
+        <v>12</v>
+      </c>
+      <c r="E110">
+        <v>13</v>
+      </c>
+      <c r="F110">
+        <v>12</v>
+      </c>
+      <c r="G110">
+        <v>7</v>
+      </c>
+      <c r="H110" s="4">
+        <v>8.2839500000000008</v>
+      </c>
+      <c r="I110" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="J110" s="4">
+        <v>14.51605</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111">
+        <v>15.105449999999999</v>
+      </c>
+      <c r="D111">
+        <v>16.183479999999999</v>
+      </c>
+      <c r="E111">
+        <v>16.31485</v>
+      </c>
+      <c r="F111">
+        <v>15.233829999999999</v>
+      </c>
+      <c r="G111">
+        <v>9.5920299999999994</v>
+      </c>
+      <c r="H111" s="4">
+        <v>11.023149999999999</v>
+      </c>
+      <c r="I111" s="4">
+        <v>14.48593</v>
+      </c>
+      <c r="J111" s="4">
+        <v>17.948709999999998</v>
       </c>
     </row>
   </sheetData>
